--- a/survey_uncleaned.xlsx
+++ b/survey_uncleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97822B9-2FD8-6342-9332-103C7A274ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715547A8-0417-1D4F-8163-79C1BC0AD0F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{F26F335B-D706-6F40-BEBB-0D1182200073}"/>
+    <workbookView xWindow="20000" yWindow="3940" windowWidth="27640" windowHeight="16940" xr2:uid="{F26F335B-D706-6F40-BEBB-0D1182200073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/survey_uncleaned.xlsx
+++ b/survey_uncleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715547A8-0417-1D4F-8163-79C1BC0AD0F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F55F57-D6F7-FA48-BB70-552BCFAEF81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20000" yWindow="3940" windowWidth="27640" windowHeight="16940" xr2:uid="{F26F335B-D706-6F40-BEBB-0D1182200073}"/>
+    <workbookView xWindow="17720" yWindow="760" windowWidth="24300" windowHeight="23660" xr2:uid="{F26F335B-D706-6F40-BEBB-0D1182200073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="201">
   <si>
     <t>HouseholdID</t>
   </si>
@@ -397,16 +397,254 @@
   </si>
   <si>
     <t>s740</t>
+  </si>
+  <si>
+    <t>h321</t>
+  </si>
+  <si>
+    <t>s481</t>
+  </si>
+  <si>
+    <t>s482</t>
+  </si>
+  <si>
+    <t>h243</t>
+  </si>
+  <si>
+    <t>s514</t>
+  </si>
+  <si>
+    <t>s515</t>
+  </si>
+  <si>
+    <t>h246</t>
+  </si>
+  <si>
+    <t>s523</t>
+  </si>
+  <si>
+    <t>s530</t>
+  </si>
+  <si>
+    <t>h281</t>
+  </si>
+  <si>
+    <t>s624</t>
+  </si>
+  <si>
+    <t>s625</t>
+  </si>
+  <si>
+    <t>h13</t>
+  </si>
+  <si>
+    <t>s555</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>s694</t>
+  </si>
+  <si>
+    <t>s134</t>
+  </si>
+  <si>
+    <t>h104</t>
+  </si>
+  <si>
+    <t>s182</t>
+  </si>
+  <si>
+    <t>s183</t>
+  </si>
+  <si>
+    <t>h148</t>
+  </si>
+  <si>
+    <t>s281</t>
+  </si>
+  <si>
+    <t>s282</t>
+  </si>
+  <si>
+    <t>h161</t>
+  </si>
+  <si>
+    <t>s313</t>
+  </si>
+  <si>
+    <t>s322</t>
+  </si>
+  <si>
+    <t>h185</t>
+  </si>
+  <si>
+    <t>s369</t>
+  </si>
+  <si>
+    <t>s370</t>
+  </si>
+  <si>
+    <t>h35</t>
+  </si>
+  <si>
+    <t>s701</t>
+  </si>
+  <si>
+    <t>s40</t>
+  </si>
+  <si>
+    <t>h209</t>
+  </si>
+  <si>
+    <t>s428</t>
+  </si>
+  <si>
+    <t>s427</t>
+  </si>
+  <si>
+    <t>h215</t>
+  </si>
+  <si>
+    <t>s439</t>
+  </si>
+  <si>
+    <t>s452</t>
+  </si>
+  <si>
+    <t>h44</t>
+  </si>
+  <si>
+    <t>s706</t>
+  </si>
+  <si>
+    <t>s51</t>
+  </si>
+  <si>
+    <t>h258</t>
+  </si>
+  <si>
+    <t>s565</t>
+  </si>
+  <si>
+    <t>s566</t>
+  </si>
+  <si>
+    <t>h268</t>
+  </si>
+  <si>
+    <t>s589</t>
+  </si>
+  <si>
+    <t>s588</t>
+  </si>
+  <si>
+    <t>s270</t>
+  </si>
+  <si>
+    <t>s593</t>
+  </si>
+  <si>
+    <t>s594</t>
+  </si>
+  <si>
+    <t>h272</t>
+  </si>
+  <si>
+    <t>s601</t>
+  </si>
+  <si>
+    <t>s602</t>
+  </si>
+  <si>
+    <t>h275</t>
+  </si>
+  <si>
+    <t>s609</t>
+  </si>
+  <si>
+    <t>s610</t>
+  </si>
+  <si>
+    <t>h283</t>
+  </si>
+  <si>
+    <t>s628</t>
+  </si>
+  <si>
+    <t>s629</t>
+  </si>
+  <si>
+    <t>h280</t>
+  </si>
+  <si>
+    <t>s621</t>
+  </si>
+  <si>
+    <t>s630</t>
+  </si>
+  <si>
+    <t>h296</t>
+  </si>
+  <si>
+    <t>s678</t>
+  </si>
+  <si>
+    <t>s681</t>
+  </si>
+  <si>
+    <t>h297</t>
+  </si>
+  <si>
+    <t>s682</t>
+  </si>
+  <si>
+    <t>s695</t>
+  </si>
+  <si>
+    <t>s4736</t>
+  </si>
+  <si>
+    <t>s4788</t>
+  </si>
+  <si>
+    <t>s4789</t>
+  </si>
+  <si>
+    <t>s4797</t>
+  </si>
+  <si>
+    <t>s4800</t>
+  </si>
+  <si>
+    <t>s4803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,9 +676,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,15 +994,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF89C235-46D0-F346-8D0E-E0CA3F662C10}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +1025,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -805,8 +1051,11 @@
       <c r="G2">
         <v>-11.246</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -828,8 +1077,11 @@
       <c r="G3">
         <v>-12.4946</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -851,8 +1103,11 @@
       <c r="G4">
         <v>-17.494</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -874,8 +1129,11 @@
       <c r="G5">
         <v>-15.691700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -897,8 +1155,11 @@
       <c r="G6">
         <v>-22.1617</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -920,8 +1181,11 @@
       <c r="G7">
         <v>13.067500000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -943,8 +1207,11 @@
       <c r="G8">
         <v>-23.649899999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -966,8 +1233,11 @@
       <c r="G9">
         <v>-26.548200000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -989,8 +1259,11 @@
       <c r="G10">
         <v>-5.6447000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1012,8 +1285,11 @@
       <c r="G11">
         <v>-7.0784000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1035,8 +1311,11 @@
       <c r="G12">
         <v>-1.1324E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1058,8 +1337,11 @@
       <c r="G13">
         <v>-5.6172000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1081,8 +1363,11 @@
       <c r="G14">
         <v>-13.2189</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1104,8 +1389,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1127,8 +1415,11 @@
       <c r="G16">
         <v>-14.695</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1138,12 +1429,23 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>41.176499999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="G17">
+        <v>-8.6984999999999992</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1153,6 +1455,9 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
+      <c r="D18">
+        <v>2.1700000000000001E-2</v>
+      </c>
       <c r="E18">
         <v>35.2941</v>
       </c>
@@ -1162,8 +1467,11 @@
       <c r="G18">
         <v>-12.1021</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1185,8 +1493,11 @@
       <c r="G19">
         <v>-16.586300000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1208,8 +1519,11 @@
       <c r="G20">
         <v>-7.9787999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1231,8 +1545,11 @@
       <c r="G21">
         <v>-10.3461</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1254,8 +1571,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1277,8 +1597,11 @@
       <c r="G23">
         <v>-9.4206000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1300,8 +1623,11 @@
       <c r="G24">
         <v>-7.968</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1323,8 +1649,11 @@
       <c r="G25">
         <v>-12.384499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -1334,12 +1663,23 @@
       <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E26">
+        <v>45.097999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>-35.350499999999997</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1361,8 +1701,11 @@
       <c r="G27">
         <v>-5.2962999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1384,8 +1727,11 @@
       <c r="G28">
         <v>-10.3619</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -1407,8 +1753,11 @@
       <c r="G29">
         <v>-16.899000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1430,8 +1779,11 @@
       <c r="G30">
         <v>-7.2195999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1453,8 +1805,11 @@
       <c r="G31">
         <v>-12.7334</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -1476,8 +1831,11 @@
       <c r="G32">
         <v>-11.4946</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1499,8 +1857,11 @@
       <c r="G33">
         <v>-8.2516999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -1522,8 +1883,11 @@
       <c r="G34">
         <v>-7.6651999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1545,8 +1909,11 @@
       <c r="G35">
         <v>-9.2148000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -1568,8 +1935,11 @@
       <c r="G36">
         <v>-7.4508000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -1591,8 +1961,11 @@
       <c r="G37">
         <v>-5.7019000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -1614,8 +1987,11 @@
       <c r="G38">
         <v>-14.531700000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -1637,8 +2013,11 @@
       <c r="G39">
         <v>-14.2645</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -1648,10 +2027,743 @@
       <c r="C40" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="D40">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E40">
+        <v>50.980400000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="G40">
+        <v>-6.12</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E41">
+        <v>49.019599999999997</v>
+      </c>
+      <c r="F41">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="G41">
+        <v>-10.6656</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E42">
+        <v>41.176499999999997</v>
+      </c>
+      <c r="F42">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="G42">
+        <v>-19.930299999999999</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E43">
+        <v>52.941200000000002</v>
+      </c>
+      <c r="F43">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="G43">
+        <v>-4.5777000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E44">
+        <v>56.862699999999997</v>
+      </c>
+      <c r="F44">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G44">
+        <v>-11.1379</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45">
+        <v>0.1799</v>
+      </c>
+      <c r="E45">
+        <v>11.764699999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="G45">
+        <v>-9.9946999999999999</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46">
+        <v>0.2525</v>
+      </c>
+      <c r="E46">
+        <v>3.9216000000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="G46">
+        <v>-5.5016999999999996</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E47">
+        <v>27.451000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="G47">
+        <v>-18.741499999999998</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E48">
+        <v>45.097999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="G48">
+        <v>-12.915900000000001</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E49">
+        <v>64.7059</v>
+      </c>
+      <c r="F49">
+        <v>1.196</v>
+      </c>
+      <c r="G49">
+        <v>-5.2820999999999998</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="E50">
+        <v>17.647099999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="G50">
+        <v>-6.2565999999999997</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="E51">
+        <v>25.490200000000002</v>
+      </c>
+      <c r="F51">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G51">
+        <v>-10.0654</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E52">
+        <v>41.176499999999997</v>
+      </c>
+      <c r="F52">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="G52">
+        <v>-13.302199999999999</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53">
+        <v>3.44E-2</v>
+      </c>
+      <c r="E53">
+        <v>29.411799999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="G53">
+        <v>-4.1764000000000001</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="E56">
+        <v>1.9608000000000001</v>
+      </c>
+      <c r="F56">
+        <v>945.53790000000004</v>
+      </c>
+      <c r="G56">
+        <v>-1.5432999999999999</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E57">
+        <v>45.097999999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.1749</v>
+      </c>
+      <c r="G57">
+        <v>-22.876300000000001</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58">
+        <v>0.1371</v>
+      </c>
+      <c r="E58">
+        <v>15.686299999999999</v>
+      </c>
+      <c r="F58">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="G58">
+        <v>-13.5823</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="E59">
+        <v>17.647099999999998</v>
+      </c>
+      <c r="F59">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="G59">
+        <v>-16.610700000000001</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60">
+        <v>0.2525</v>
+      </c>
+      <c r="E60">
+        <v>5.8823999999999996</v>
+      </c>
+      <c r="F60">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="G60">
+        <v>-11.4047</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E62">
+        <v>41.176499999999997</v>
+      </c>
+      <c r="F62">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="G62">
+        <v>-14.5359</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="F64">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G64">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="F65">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G65">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="F66">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G66">
+        <v>-1.54E-2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="F67">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G67">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E68">
+        <v>50.980400000000003</v>
+      </c>
+      <c r="F68">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G68">
+        <v>-1.1324E-14</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="F69">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G69">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/survey_uncleaned.xlsx
+++ b/survey_uncleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F55F57-D6F7-FA48-BB70-552BCFAEF81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34DE3BB-8460-DA47-82A9-5F2AB74678BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="760" windowWidth="24300" windowHeight="23660" xr2:uid="{F26F335B-D706-6F40-BEBB-0D1182200073}"/>
+    <workbookView xWindow="22940" yWindow="460" windowWidth="24300" windowHeight="23660" xr2:uid="{F26F335B-D706-6F40-BEBB-0D1182200073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
   <si>
     <t>HouseholdID</t>
   </si>
@@ -39,12 +39,6 @@
     <t>discount_rate_k</t>
   </si>
   <si>
-    <t>noise_param</t>
-  </si>
-  <si>
-    <t>log_liklihood_of_model_fit</t>
-  </si>
-  <si>
     <t>h160</t>
   </si>
   <si>
@@ -627,7 +621,13 @@
     <t xml:space="preserve">exclude </t>
   </si>
   <si>
-    <t>NA</t>
+    <t>percent_delayed_choices</t>
+  </si>
+  <si>
+    <t>noise_parameter</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
 </sst>
 </file>
@@ -650,18 +650,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,8 +672,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,12 +990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF89C235-46D0-F346-8D0E-E0CA3F662C10}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
@@ -1020,24 +1015,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>2.0299999999999999E-2</v>
@@ -1057,13 +1055,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>0.16969999999999999</v>
@@ -1083,13 +1081,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>5.4800000000000001E-2</v>
@@ -1109,13 +1107,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>7.1000000000000004E-3</v>
@@ -1135,13 +1133,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>2.9999999999999997E-4</v>
@@ -1161,13 +1159,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7">
         <v>0.1555</v>
@@ -1187,13 +1185,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8">
         <v>2.5000000000000001E-3</v>
@@ -1213,13 +1211,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9">
         <v>0.1331</v>
@@ -1239,13 +1237,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
       <c r="D10">
         <v>8.0000000000000004E-4</v>
@@ -1265,13 +1263,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11">
         <v>3.0999999999999999E-3</v>
@@ -1291,13 +1289,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1317,13 +1315,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
       </c>
       <c r="D13">
         <v>0.21909999999999999</v>
@@ -1343,13 +1341,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14">
         <v>3.0999999999999999E-3</v>
@@ -1369,13 +1367,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="D15">
         <v>2.0000000000000001E-4</v>
@@ -1384,7 +1382,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1395,13 +1393,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="D16">
         <v>2.7000000000000001E-3</v>
@@ -1421,13 +1419,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
       </c>
       <c r="D17">
         <v>1.1900000000000001E-2</v>
@@ -1447,13 +1445,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
       </c>
       <c r="D18">
         <v>2.1700000000000001E-2</v>
@@ -1473,13 +1471,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
       </c>
       <c r="D19">
         <v>5.6000000000000001E-2</v>
@@ -1499,13 +1497,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
       <c r="D20">
         <v>2.8999999999999998E-3</v>
@@ -1525,13 +1523,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
       </c>
       <c r="D21">
         <v>4.2599999999999999E-2</v>
@@ -1551,13 +1549,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
       </c>
       <c r="D22">
         <v>1.5900000000000001E-2</v>
@@ -1577,13 +1575,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
       </c>
       <c r="D23">
         <v>4.6300000000000001E-2</v>
@@ -1603,13 +1601,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
       </c>
       <c r="D24">
         <v>2.2100000000000002E-2</v>
@@ -1629,13 +1627,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
       </c>
       <c r="D25">
         <v>7.1000000000000004E-3</v>
@@ -1655,13 +1653,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
       </c>
       <c r="D26">
         <v>4.0000000000000002E-4</v>
@@ -1681,13 +1679,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
       </c>
       <c r="D27">
         <v>4.5999999999999999E-2</v>
@@ -1707,13 +1705,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
       </c>
       <c r="D28">
         <v>1E-3</v>
@@ -1733,13 +1731,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
       </c>
       <c r="D29">
         <v>2.8999999999999998E-3</v>
@@ -1759,13 +1757,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
       </c>
       <c r="D30">
         <v>8.8999999999999999E-3</v>
@@ -1785,13 +1783,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
       </c>
       <c r="D31">
         <v>2.8799999999999999E-2</v>
@@ -1811,13 +1809,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
       </c>
       <c r="D32">
         <v>1.6999999999999999E-3</v>
@@ -1837,13 +1835,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
         <v>100</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="s">
-        <v>102</v>
       </c>
       <c r="D33">
         <v>0.2525</v>
@@ -1863,13 +1861,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
         <v>103</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
       </c>
       <c r="D34">
         <v>2.2800000000000001E-2</v>
@@ -1889,13 +1887,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
       </c>
       <c r="D35">
         <v>2.18E-2</v>
@@ -1915,13 +1913,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
         <v>109</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
       </c>
       <c r="D36">
         <v>3.8999999999999998E-3</v>
@@ -1941,13 +1939,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
       </c>
       <c r="D37">
         <v>3.8800000000000001E-2</v>
@@ -1967,13 +1965,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
         <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
       </c>
       <c r="D38">
         <v>7.3200000000000001E-2</v>
@@ -1993,13 +1991,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
         <v>118</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
       </c>
       <c r="D39">
         <v>8.6E-3</v>
@@ -2019,13 +2017,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
         <v>121</v>
-      </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
       </c>
       <c r="D40">
         <v>5.5999999999999999E-3</v>
@@ -2045,13 +2043,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
         <v>124</v>
-      </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
       </c>
       <c r="D41">
         <v>6.8999999999999999E-3</v>
@@ -2071,13 +2069,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
         <v>127</v>
-      </c>
-      <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" t="s">
-        <v>129</v>
       </c>
       <c r="D42">
         <v>1.6299999999999999E-2</v>
@@ -2097,13 +2095,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
       </c>
       <c r="D43">
         <v>5.5999999999999999E-3</v>
@@ -2123,13 +2121,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
         <v>133</v>
-      </c>
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" t="s">
-        <v>135</v>
       </c>
       <c r="D44">
         <v>3.3999999999999998E-3</v>
@@ -2149,13 +2147,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
         <v>136</v>
-      </c>
-      <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
       </c>
       <c r="D45">
         <v>0.1799</v>
@@ -2175,13 +2173,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
         <v>139</v>
-      </c>
-      <c r="B46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
       </c>
       <c r="D46">
         <v>0.2525</v>
@@ -2201,13 +2199,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
       </c>
       <c r="D47">
         <v>5.28E-2</v>
@@ -2227,13 +2225,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
         <v>145</v>
-      </c>
-      <c r="B48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" t="s">
-        <v>147</v>
       </c>
       <c r="D48">
         <v>8.8999999999999999E-3</v>
@@ -2253,13 +2251,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
         <v>148</v>
-      </c>
-      <c r="B49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
       </c>
       <c r="D49">
         <v>2.3E-3</v>
@@ -2279,13 +2277,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
         <v>151</v>
-      </c>
-      <c r="B50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" t="s">
-        <v>153</v>
       </c>
       <c r="D50">
         <v>7.7899999999999997E-2</v>
@@ -2305,13 +2303,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
         <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" t="s">
-        <v>156</v>
       </c>
       <c r="D51">
         <v>3.9899999999999998E-2</v>
@@ -2331,13 +2329,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" t="s">
-        <v>159</v>
       </c>
       <c r="D52">
         <v>1.01E-2</v>
@@ -2357,13 +2355,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
         <v>160</v>
-      </c>
-      <c r="B53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" t="s">
-        <v>162</v>
       </c>
       <c r="D53">
         <v>3.44E-2</v>
@@ -2383,49 +2381,65 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
         <v>163</v>
       </c>
-      <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="D54">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E54">
+        <v>29.411799999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="G54">
+        <v>-12.694800000000001</v>
+      </c>
       <c r="H54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
         <v>166</v>
       </c>
-      <c r="B55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="D55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
         <v>169</v>
-      </c>
-      <c r="B56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" t="s">
-        <v>171</v>
       </c>
       <c r="D56">
         <v>0.25009999999999999</v>
@@ -2440,18 +2454,18 @@
         <v>-1.5432999999999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
         <v>172</v>
-      </c>
-      <c r="B57" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" t="s">
-        <v>174</v>
       </c>
       <c r="D57">
         <v>8.6999999999999994E-3</v>
@@ -2471,13 +2485,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
         <v>175</v>
-      </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
       </c>
       <c r="D58">
         <v>0.1371</v>
@@ -2497,13 +2511,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
         <v>178</v>
-      </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>180</v>
       </c>
       <c r="D59">
         <v>8.8700000000000001E-2</v>
@@ -2523,13 +2537,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
         <v>181</v>
-      </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" t="s">
-        <v>183</v>
       </c>
       <c r="D60">
         <v>0.2525</v>
@@ -2549,31 +2563,39 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
         <v>184</v>
       </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="D61">
+        <v>0.2525</v>
+      </c>
+      <c r="E61">
+        <v>1.9608000000000001</v>
+      </c>
+      <c r="F61">
+        <v>7.0846</v>
+      </c>
+      <c r="G61">
+        <v>-1.9942</v>
+      </c>
       <c r="H61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
         <v>187</v>
-      </c>
-      <c r="B62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" t="s">
-        <v>189</v>
       </c>
       <c r="D62">
         <v>1.15E-2</v>
@@ -2593,31 +2615,39 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="D63">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E63">
+        <v>56.862699999999997</v>
+      </c>
+      <c r="F63">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G63">
+        <v>-12.210100000000001</v>
+      </c>
       <c r="H63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2637,13 +2667,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2663,13 +2693,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2689,13 +2719,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2715,13 +2745,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D68">
         <v>6.3E-3</v>
@@ -2736,18 +2766,18 @@
         <v>-1.1324E-14</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D69">
         <v>0</v>
